--- a/汽柴煤油2.0/eta/华东纯苯价格-EB期货指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/华东纯苯价格-EB期货指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-1367.2108</v>
+        <v>-1321.8557</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1336.7367</v>
+        <v>-1340.4724</v>
       </c>
       <c r="C3" t="n">
-        <v>-1366.1658</v>
+        <v>-1359.3165</v>
       </c>
     </row>
     <row r="4">
